--- a/Code/Results/Cases/Case_3_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.47581921476797</v>
+        <v>8.057451718567927</v>
       </c>
       <c r="C2">
-        <v>7.023413012866832</v>
+        <v>4.534510739735334</v>
       </c>
       <c r="D2">
-        <v>4.423052294280333</v>
+        <v>4.990996010574484</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.68342869355603</v>
+        <v>25.50497943890398</v>
       </c>
       <c r="G2">
-        <v>27.42722354195333</v>
+        <v>31.0162231883183</v>
       </c>
       <c r="H2">
-        <v>9.630967517322626</v>
+        <v>14.72539155171777</v>
       </c>
       <c r="I2">
-        <v>14.59686881455507</v>
+        <v>21.28122733489965</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.62532558397765</v>
+        <v>8.197964696691457</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.89048552727036</v>
+        <v>19.97369168425675</v>
       </c>
       <c r="N2">
-        <v>12.05409241630885</v>
+        <v>18.79935615229461</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.75637085026125</v>
+        <v>7.812082630667345</v>
       </c>
       <c r="C3">
-        <v>6.613533758350076</v>
+        <v>4.3296563454358</v>
       </c>
       <c r="D3">
-        <v>4.332148234051964</v>
+        <v>4.954743815330101</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.11431680715737</v>
+        <v>25.46702457895256</v>
       </c>
       <c r="G3">
-        <v>26.57977112353026</v>
+        <v>30.92829985372595</v>
       </c>
       <c r="H3">
-        <v>9.607265132219757</v>
+        <v>14.75721707724141</v>
       </c>
       <c r="I3">
-        <v>14.5659552181949</v>
+        <v>21.33242587985643</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.03338958515339</v>
+        <v>8.040141642406311</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.59850163043991</v>
+        <v>19.37795430612872</v>
       </c>
       <c r="N3">
-        <v>12.28864990724359</v>
+        <v>18.8629646206038</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.28935250712603</v>
+        <v>7.659154786328017</v>
       </c>
       <c r="C4">
-        <v>6.34878744369258</v>
+        <v>4.197743839832573</v>
       </c>
       <c r="D4">
-        <v>4.274391914960264</v>
+        <v>4.931880793628515</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.7763498133036</v>
+        <v>25.45043442579961</v>
       </c>
       <c r="G4">
-        <v>26.0769192229418</v>
+        <v>30.88391432375105</v>
       </c>
       <c r="H4">
-        <v>9.599356500649321</v>
+        <v>14.77923614996731</v>
       </c>
       <c r="I4">
-        <v>14.55901083446546</v>
+        <v>21.36801913582146</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.651156151857327</v>
+        <v>7.943405309268822</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.14060815009782</v>
+        <v>19.01089779209507</v>
       </c>
       <c r="N4">
-        <v>12.43502604054879</v>
+        <v>18.90382010386983</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.09268910390679</v>
+        <v>7.596369522077379</v>
       </c>
       <c r="C5">
-        <v>6.237635904493568</v>
+        <v>4.14248334733434</v>
       </c>
       <c r="D5">
-        <v>4.250395448526299</v>
+        <v>4.922415073246865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.64159980792997</v>
+        <v>25.44536580849327</v>
       </c>
       <c r="G5">
-        <v>25.87652421885959</v>
+        <v>30.86825032818265</v>
       </c>
       <c r="H5">
-        <v>9.597742538857348</v>
+        <v>14.78883145486586</v>
       </c>
       <c r="I5">
-        <v>14.55907557676205</v>
+        <v>21.38356656995043</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.490723459422234</v>
+        <v>7.904083714310192</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.53296691859216</v>
+        <v>18.86125094934805</v>
       </c>
       <c r="N5">
-        <v>12.49532024568098</v>
+        <v>18.92092292377188</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.05965010864772</v>
+        <v>7.585919140772496</v>
       </c>
       <c r="C6">
-        <v>6.218982917363574</v>
+        <v>4.133217673397737</v>
       </c>
       <c r="D6">
-        <v>4.246383859368127</v>
+        <v>4.920834396661374</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.6194069304075</v>
+        <v>25.44462643743028</v>
       </c>
       <c r="G6">
-        <v>25.84352549640364</v>
+        <v>30.86579592216755</v>
       </c>
       <c r="H6">
-        <v>9.597569911928044</v>
+        <v>14.79046231270627</v>
       </c>
       <c r="I6">
-        <v>14.55925733199783</v>
+        <v>21.38621112357491</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.463803548160625</v>
+        <v>7.897562074039015</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.43122908425744</v>
+        <v>18.83640565415108</v>
       </c>
       <c r="N6">
-        <v>12.50537241215129</v>
+        <v>18.92379028672699</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.28672593232743</v>
+        <v>7.658309784942051</v>
       </c>
       <c r="C7">
-        <v>6.347301598918717</v>
+        <v>4.197004618614159</v>
       </c>
       <c r="D7">
-        <v>4.274070117490334</v>
+        <v>4.93175373430191</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.77452036596918</v>
+        <v>25.4503592142108</v>
       </c>
       <c r="G7">
-        <v>26.07419815431616</v>
+        <v>30.88369325096424</v>
       </c>
       <c r="H7">
-        <v>9.599328301414053</v>
+        <v>14.77936303682884</v>
       </c>
       <c r="I7">
-        <v>14.55900016038391</v>
+        <v>21.36822459472636</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.649011326191223</v>
+        <v>7.942874526515633</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.1324691016876</v>
+        <v>19.00887953836822</v>
       </c>
       <c r="N7">
-        <v>12.43583651388662</v>
+        <v>18.90404891902295</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.23300031931917</v>
+        <v>7.973380387083519</v>
       </c>
       <c r="C8">
-        <v>6.884812734482323</v>
+        <v>4.465169587809751</v>
       </c>
       <c r="D8">
-        <v>4.39212818626034</v>
+        <v>4.97862342307493</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.48487175467323</v>
+        <v>25.49050169724993</v>
       </c>
       <c r="G8">
-        <v>27.13146497759876</v>
+        <v>30.98392145324266</v>
       </c>
       <c r="H8">
-        <v>9.621378316748107</v>
+        <v>14.73585021802757</v>
       </c>
       <c r="I8">
-        <v>14.58363147957151</v>
+        <v>21.29801633743933</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.42515232930578</v>
+        <v>8.143546435968318</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.11018885626546</v>
+        <v>19.76869224689866</v>
       </c>
       <c r="N8">
-        <v>12.13451190597499</v>
+        <v>18.82091565569213</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.88818486854614</v>
+        <v>8.568979666077015</v>
       </c>
       <c r="C9">
-        <v>7.834450175399694</v>
+        <v>4.941073002070604</v>
       </c>
       <c r="D9">
-        <v>4.606974345492796</v>
+        <v>5.065612434566921</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.96523100049754</v>
+        <v>25.62226846368308</v>
       </c>
       <c r="G9">
-        <v>29.33874994269694</v>
+        <v>31.25607608947465</v>
       </c>
       <c r="H9">
-        <v>9.720159338502794</v>
+        <v>14.67021739178881</v>
       </c>
       <c r="I9">
-        <v>14.73347479524956</v>
+        <v>21.19342906957912</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.79640600453428</v>
+        <v>8.535946455478692</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.59149170158785</v>
+        <v>21.23822933987264</v>
       </c>
       <c r="N9">
-        <v>11.5595931235222</v>
+        <v>18.67210802011795</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.98246061893504</v>
+        <v>8.987859388450888</v>
       </c>
       <c r="C10">
-        <v>8.468025702972939</v>
+        <v>5.258838404966721</v>
       </c>
       <c r="D10">
-        <v>4.75281730457841</v>
+        <v>5.126354217088458</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.10231746383155</v>
+        <v>25.75101442751625</v>
       </c>
       <c r="G10">
-        <v>31.03787650199542</v>
+        <v>31.50116290153709</v>
       </c>
       <c r="H10">
-        <v>9.830553660545755</v>
+        <v>14.63404728369633</v>
       </c>
       <c r="I10">
-        <v>14.91400014374262</v>
+        <v>21.13690082810976</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.71028630618143</v>
+        <v>8.820401655394077</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.4756575092856</v>
+        <v>22.29263336019497</v>
       </c>
       <c r="N10">
-        <v>11.14237634426716</v>
+        <v>18.57135606181434</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.45394405622941</v>
+        <v>9.173423579601216</v>
       </c>
       <c r="C11">
-        <v>8.74229956352452</v>
+        <v>5.396258587759122</v>
       </c>
       <c r="D11">
-        <v>4.816094466231935</v>
+        <v>5.15326448541924</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.63003071227608</v>
+        <v>25.81640094316145</v>
       </c>
       <c r="G11">
-        <v>31.8276918112421</v>
+        <v>31.62219279504146</v>
       </c>
       <c r="H11">
-        <v>9.889879326083431</v>
+        <v>14.62021720813476</v>
       </c>
       <c r="I11">
-        <v>15.01336379661468</v>
+        <v>21.11562223792094</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.10546696047762</v>
+        <v>8.948346937392969</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.23440164602192</v>
+        <v>22.76445015907834</v>
       </c>
       <c r="N11">
-        <v>10.95237434899187</v>
+        <v>18.52736459283954</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.6287042424723</v>
+        <v>9.242907279386605</v>
       </c>
       <c r="C12">
-        <v>8.844151862927321</v>
+        <v>5.447256472553978</v>
       </c>
       <c r="D12">
-        <v>4.839567678641308</v>
+        <v>5.163348069580572</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.83138508415825</v>
+        <v>25.84212923587807</v>
       </c>
       <c r="G12">
-        <v>32.12929223140154</v>
+        <v>31.66936831213926</v>
       </c>
       <c r="H12">
-        <v>9.913731675636994</v>
+        <v>14.61535795903207</v>
       </c>
       <c r="I12">
-        <v>15.05364138920361</v>
+        <v>21.10820448501718</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.25213595423043</v>
+        <v>8.996538489311293</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.90179211784832</v>
+        <v>22.94181357880463</v>
       </c>
       <c r="N12">
-        <v>10.88025091667345</v>
+        <v>18.51096949678</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.59123466508935</v>
+        <v>9.227978667347184</v>
       </c>
       <c r="C13">
-        <v>8.822305605933915</v>
+        <v>5.436319627449833</v>
       </c>
       <c r="D13">
-        <v>4.834534888433224</v>
+        <v>5.16118118418909</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.78795134066088</v>
+        <v>25.83654536204821</v>
       </c>
       <c r="G13">
-        <v>32.06422293319262</v>
+        <v>31.65914890703623</v>
       </c>
       <c r="H13">
-        <v>9.908531670134391</v>
+        <v>14.61638766950577</v>
       </c>
       <c r="I13">
-        <v>15.04484612137849</v>
+        <v>21.1097735365024</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.22068098213362</v>
+        <v>8.986171831263727</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.75794664828189</v>
+        <v>22.903675786738</v>
       </c>
       <c r="N13">
-        <v>10.89579443279019</v>
+        <v>18.51448877347729</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.46839745191364</v>
+        <v>9.179156153142241</v>
       </c>
       <c r="C14">
-        <v>8.750719315290429</v>
+        <v>5.400475133592762</v>
       </c>
       <c r="D14">
-        <v>4.818035717578958</v>
+        <v>5.154096224368025</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.64656549303267</v>
+        <v>25.81849830683668</v>
       </c>
       <c r="G14">
-        <v>31.85245342571618</v>
+        <v>31.6260471822346</v>
       </c>
       <c r="H14">
-        <v>9.891813413991692</v>
+        <v>14.61980985801163</v>
       </c>
       <c r="I14">
-        <v>15.01662330396824</v>
+        <v>21.11499913754166</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.11759331994284</v>
+        <v>8.952317139773298</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.2892629656479</v>
+        <v>22.77906902508348</v>
       </c>
       <c r="N14">
-        <v>10.94644515713174</v>
+        <v>18.52601048413468</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.39266377832646</v>
+        <v>9.149146758610764</v>
       </c>
       <c r="C15">
-        <v>8.706608813861825</v>
+        <v>5.378383505974535</v>
       </c>
       <c r="D15">
-        <v>4.807864315020565</v>
+        <v>5.149742491812632</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.56016203201181</v>
+        <v>25.80756960093248</v>
       </c>
       <c r="G15">
-        <v>31.72307014876569</v>
+        <v>31.60594560149032</v>
       </c>
       <c r="H15">
-        <v>9.881756011951893</v>
+        <v>14.62195527718604</v>
       </c>
       <c r="I15">
-        <v>14.99968653035502</v>
+        <v>21.11828337198367</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.05406068195066</v>
+        <v>8.931545076151247</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.00245085918888</v>
+        <v>22.70256910717176</v>
       </c>
       <c r="N15">
-        <v>10.97744262921342</v>
+        <v>18.53310214611849</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.95111903413467</v>
+        <v>8.97562598329576</v>
       </c>
       <c r="C16">
-        <v>8.449820371347661</v>
+        <v>5.249712839957604</v>
       </c>
       <c r="D16">
-        <v>4.748616424162673</v>
+        <v>5.124580791666202</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.06804088044493</v>
+        <v>25.74687742973388</v>
       </c>
       <c r="G16">
-        <v>30.98660525428379</v>
+        <v>31.4934429649801</v>
       </c>
       <c r="H16">
-        <v>9.8268663551539</v>
+        <v>14.63500396307956</v>
       </c>
       <c r="I16">
-        <v>14.90786780763966</v>
+        <v>21.13838088371253</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.68404497986394</v>
+        <v>8.812006573651749</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.36075836667103</v>
+        <v>22.26162584903483</v>
       </c>
       <c r="N16">
-        <v>11.15477776567761</v>
+        <v>18.57426795012989</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.67351097151334</v>
+        <v>8.867848531903245</v>
       </c>
       <c r="C17">
-        <v>8.288715322010988</v>
+        <v>5.168939443718928</v>
       </c>
       <c r="D17">
-        <v>4.711453119533786</v>
+        <v>5.108957959761423</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.76881480890775</v>
+        <v>25.71138273349128</v>
       </c>
       <c r="G17">
-        <v>30.53916507555438</v>
+        <v>31.42685060987517</v>
       </c>
       <c r="H17">
-        <v>9.795579480604657</v>
+        <v>14.64368139322854</v>
       </c>
       <c r="I17">
-        <v>14.85607415978565</v>
+        <v>21.15184782614224</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.45177419141663</v>
+        <v>8.738264970511224</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.3531522332248</v>
+        <v>21.98898321115106</v>
       </c>
       <c r="N17">
-        <v>11.26342250478743</v>
+        <v>18.5999925101608</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.51136194187676</v>
+        <v>8.805392079337523</v>
       </c>
       <c r="C18">
-        <v>8.194739862105639</v>
+        <v>5.121810007703155</v>
       </c>
       <c r="D18">
-        <v>4.689792298048846</v>
+        <v>5.099904387236404</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.59768760106593</v>
+        <v>25.6916098524583</v>
       </c>
       <c r="G18">
-        <v>30.28338767631655</v>
+        <v>31.38944809993126</v>
       </c>
       <c r="H18">
-        <v>9.778436402742589</v>
+        <v>14.64891936406161</v>
       </c>
       <c r="I18">
-        <v>14.82789583856057</v>
+        <v>21.16001111781371</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.31624545702106</v>
+        <v>8.695716596449341</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.77264544061011</v>
+        <v>21.83143817534273</v>
       </c>
       <c r="N18">
-        <v>11.32590290093859</v>
+        <v>18.61496196299292</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.4560356104342</v>
+        <v>8.784167613448265</v>
       </c>
       <c r="C19">
-        <v>8.162696136325899</v>
+        <v>5.105738082134507</v>
       </c>
       <c r="D19">
-        <v>4.682410586749206</v>
+        <v>5.096827462524598</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.53991533123973</v>
+        <v>25.68502584853007</v>
       </c>
       <c r="G19">
-        <v>30.19705567005415</v>
+        <v>31.37693956254404</v>
       </c>
       <c r="H19">
-        <v>9.772776149024452</v>
+        <v>14.65073524435643</v>
       </c>
       <c r="I19">
-        <v>14.81862698496965</v>
+        <v>21.16284670276674</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.27002645514164</v>
+        <v>8.681288956089183</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.57586405204907</v>
+        <v>21.77797672281001</v>
       </c>
       <c r="N19">
-        <v>11.34705992110498</v>
+        <v>18.62006017590442</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.70331906573596</v>
+        <v>8.879370343441364</v>
       </c>
       <c r="C20">
-        <v>8.306001051500408</v>
+        <v>5.177607439770956</v>
       </c>
       <c r="D20">
-        <v>4.715439076162825</v>
+        <v>5.110628068938041</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.80056655614726</v>
+        <v>25.71509477222052</v>
       </c>
       <c r="G20">
-        <v>30.58663213976769</v>
+        <v>31.43384656004549</v>
       </c>
       <c r="H20">
-        <v>9.798821265304049</v>
+        <v>14.64273210385958</v>
       </c>
       <c r="I20">
-        <v>14.86141964328622</v>
+        <v>21.15037102604756</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.47669999629342</v>
+        <v>8.746129140856878</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.46049644927251</v>
+        <v>22.01808318430742</v>
       </c>
       <c r="N20">
-        <v>11.25185896364468</v>
+        <v>18.59723615302087</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.50458032522758</v>
+        <v>9.193518335301853</v>
       </c>
       <c r="C21">
-        <v>8.771800521118713</v>
+        <v>5.411031861224061</v>
       </c>
       <c r="D21">
-        <v>4.822895607313566</v>
+        <v>5.156180169597034</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.68805227187727</v>
+        <v>25.82377300675316</v>
       </c>
       <c r="G21">
-        <v>31.91458585185613</v>
+        <v>31.63573371479487</v>
       </c>
       <c r="H21">
-        <v>9.896685685875964</v>
+        <v>14.61879441788286</v>
       </c>
       <c r="I21">
-        <v>15.02483965652022</v>
+        <v>21.11344686734321</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.14795366799466</v>
+        <v>8.962268479637983</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.42686473004567</v>
+        <v>22.81570574512537</v>
       </c>
       <c r="N21">
-        <v>10.93157386897269</v>
+        <v>18.52261913636193</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.0062120113321</v>
+        <v>9.394227323200671</v>
       </c>
       <c r="C22">
-        <v>9.064511444727739</v>
+        <v>5.557520571691136</v>
       </c>
       <c r="D22">
-        <v>4.890247454917144</v>
+        <v>5.185327530786988</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.27698774736887</v>
+        <v>25.9004348516913</v>
       </c>
       <c r="G22">
-        <v>32.79725114762012</v>
+        <v>31.77549858903967</v>
       </c>
       <c r="H22">
-        <v>9.968770214745998</v>
+        <v>14.60535266577768</v>
       </c>
       <c r="I22">
-        <v>15.14718497591135</v>
+        <v>21.09304595796882</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.56928818688533</v>
+        <v>9.102000120868915</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.37546948522113</v>
+        <v>23.32933141645154</v>
       </c>
       <c r="N22">
-        <v>10.72113783504475</v>
+        <v>18.4753880252663</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.74049920577296</v>
+        <v>9.287547283207999</v>
       </c>
       <c r="C23">
-        <v>8.909360349229043</v>
+        <v>5.479896051791014</v>
       </c>
       <c r="D23">
-        <v>4.854582216022624</v>
+        <v>5.169829067535233</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.96182634977075</v>
+        <v>25.85900804259516</v>
       </c>
       <c r="G23">
-        <v>32.32474948471009</v>
+        <v>31.70019769992332</v>
       </c>
       <c r="H23">
-        <v>9.929526960716872</v>
+        <v>14.61232504143865</v>
       </c>
       <c r="I23">
-        <v>15.0804045538888</v>
+        <v>21.10359227522629</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.34601195621542</v>
+        <v>9.027578090847722</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.33349492704759</v>
+        <v>23.05595510172044</v>
       </c>
       <c r="N23">
-        <v>10.83361172271357</v>
+        <v>18.50045607091808</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.68985076452092</v>
+        <v>8.874162865130515</v>
       </c>
       <c r="C24">
-        <v>8.298190390398256</v>
+        <v>5.173690792229184</v>
       </c>
       <c r="D24">
-        <v>4.713637941038255</v>
+        <v>5.109873235986588</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.78620878283731</v>
+        <v>25.713414585372</v>
       </c>
       <c r="G24">
-        <v>30.56516773176854</v>
+        <v>31.43068094068188</v>
       </c>
       <c r="H24">
-        <v>9.797353030853047</v>
+        <v>14.6431605014243</v>
       </c>
       <c r="I24">
-        <v>14.85899798388416</v>
+        <v>21.15103737630823</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.46543724654413</v>
+        <v>8.742574223301729</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.41197011431407</v>
+        <v>22.00492956204683</v>
       </c>
       <c r="N24">
-        <v>11.25708677083094</v>
+        <v>18.59848174114209</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.46184049226986</v>
+        <v>8.410797454342903</v>
       </c>
       <c r="C25">
-        <v>7.588791302503045</v>
+        <v>4.817841378002605</v>
       </c>
       <c r="D25">
-        <v>4.550818661674597</v>
+        <v>5.042624136831019</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.55585973347521</v>
+        <v>25.58097823723947</v>
       </c>
       <c r="G25">
-        <v>28.72784318699743</v>
+        <v>31.17444346982245</v>
       </c>
       <c r="H25">
-        <v>9.687087354500958</v>
+        <v>14.68585951199132</v>
       </c>
       <c r="I25">
-        <v>14.6812024280775</v>
+        <v>21.2181651796512</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.44178473216455</v>
+        <v>8.430245562395362</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.14014493194757</v>
+        <v>20.84425464472791</v>
       </c>
       <c r="N25">
-        <v>11.71383583650546</v>
+        <v>18.71085176658674</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.057451718567927</v>
+        <v>11.47581921476796</v>
       </c>
       <c r="C2">
-        <v>4.534510739735334</v>
+        <v>7.023413012866789</v>
       </c>
       <c r="D2">
-        <v>4.990996010574484</v>
+        <v>4.423052294280268</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.50497943890398</v>
+        <v>20.68342869355606</v>
       </c>
       <c r="G2">
-        <v>31.0162231883183</v>
+        <v>27.42722354195336</v>
       </c>
       <c r="H2">
-        <v>14.72539155171777</v>
+        <v>9.630967517322604</v>
       </c>
       <c r="I2">
-        <v>21.28122733489965</v>
+        <v>14.59686881455507</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.197964696691457</v>
+        <v>10.62532558397768</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97369168425675</v>
+        <v>29.89048552727035</v>
       </c>
       <c r="N2">
-        <v>18.79935615229461</v>
+        <v>12.05409241630886</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.812082630667345</v>
+        <v>10.75637085026116</v>
       </c>
       <c r="C3">
-        <v>4.3296563454358</v>
+        <v>6.613533758350239</v>
       </c>
       <c r="D3">
-        <v>4.954743815330101</v>
+        <v>4.332148234051972</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.46702457895256</v>
+        <v>20.11431680715746</v>
       </c>
       <c r="G3">
-        <v>30.92829985372595</v>
+        <v>26.57977112353038</v>
       </c>
       <c r="H3">
-        <v>14.75721707724141</v>
+        <v>9.607265132219855</v>
       </c>
       <c r="I3">
-        <v>21.33242587985643</v>
+        <v>14.56595521819508</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.040141642406311</v>
+        <v>10.03338958515339</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37795430612872</v>
+        <v>27.59850163043992</v>
       </c>
       <c r="N3">
-        <v>18.8629646206038</v>
+        <v>12.28864990724372</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.659154786328017</v>
+        <v>10.28935250712609</v>
       </c>
       <c r="C4">
-        <v>4.197743839832573</v>
+        <v>6.348787443692324</v>
       </c>
       <c r="D4">
-        <v>4.931880793628515</v>
+        <v>4.274391914960509</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.45043442579961</v>
+        <v>19.77634981330349</v>
       </c>
       <c r="G4">
-        <v>30.88391432375105</v>
+        <v>26.07691922294196</v>
       </c>
       <c r="H4">
-        <v>14.77923614996731</v>
+        <v>9.599356500649206</v>
       </c>
       <c r="I4">
-        <v>21.36801913582146</v>
+        <v>14.55901083446535</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.943405309268822</v>
+        <v>9.651156151857327</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.01089779209507</v>
+        <v>26.14060815009779</v>
       </c>
       <c r="N4">
-        <v>18.90382010386983</v>
+        <v>12.43502604054876</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.596369522077379</v>
+        <v>10.0926891039068</v>
       </c>
       <c r="C5">
-        <v>4.14248334733434</v>
+        <v>6.237635904493553</v>
       </c>
       <c r="D5">
-        <v>4.922415073246865</v>
+        <v>4.250395448526369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.44536580849327</v>
+        <v>19.64159980792993</v>
       </c>
       <c r="G5">
-        <v>30.86825032818265</v>
+        <v>25.87652421885957</v>
       </c>
       <c r="H5">
-        <v>14.78883145486586</v>
+        <v>9.597742538857355</v>
       </c>
       <c r="I5">
-        <v>21.38356656995043</v>
+        <v>14.55907557676205</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.904083714310192</v>
+        <v>9.490723459422226</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.86125094934805</v>
+        <v>25.53296691859219</v>
       </c>
       <c r="N5">
-        <v>18.92092292377188</v>
+        <v>12.49532024568098</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.585919140772496</v>
+        <v>10.05965010864773</v>
       </c>
       <c r="C6">
-        <v>4.133217673397737</v>
+        <v>6.218982917363649</v>
       </c>
       <c r="D6">
-        <v>4.920834396661374</v>
+        <v>4.246383859368245</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.44462643743028</v>
+        <v>19.61940693040743</v>
       </c>
       <c r="G6">
-        <v>30.86579592216755</v>
+        <v>25.84352549640349</v>
       </c>
       <c r="H6">
-        <v>14.79046231270627</v>
+        <v>9.597569911928062</v>
       </c>
       <c r="I6">
-        <v>21.38621112357491</v>
+        <v>14.55925733199784</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.897562074039015</v>
+        <v>9.463803548160625</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.83640565415108</v>
+        <v>25.43122908425735</v>
       </c>
       <c r="N6">
-        <v>18.92379028672699</v>
+        <v>12.50537241215126</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.658309784942051</v>
+        <v>10.28672593232741</v>
       </c>
       <c r="C7">
-        <v>4.197004618614159</v>
+        <v>6.347301598918897</v>
       </c>
       <c r="D7">
-        <v>4.93175373430191</v>
+        <v>4.274070117490147</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.4503592142108</v>
+        <v>19.7745203659692</v>
       </c>
       <c r="G7">
-        <v>30.88369325096424</v>
+        <v>26.07419815431606</v>
       </c>
       <c r="H7">
-        <v>14.77936303682884</v>
+        <v>9.599328301414065</v>
       </c>
       <c r="I7">
-        <v>21.36822459472636</v>
+        <v>14.55900016038392</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.942874526515633</v>
+        <v>9.649011326191257</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.00887953836822</v>
+        <v>26.13246910168752</v>
       </c>
       <c r="N7">
-        <v>18.90404891902295</v>
+        <v>12.43583651388659</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.973380387083519</v>
+        <v>11.23300031931904</v>
       </c>
       <c r="C8">
-        <v>4.465169587809751</v>
+        <v>6.884812734482447</v>
       </c>
       <c r="D8">
-        <v>4.97862342307493</v>
+        <v>4.392128186260336</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.49050169724993</v>
+        <v>20.4848717546733</v>
       </c>
       <c r="G8">
-        <v>30.98392145324266</v>
+        <v>27.1314649775988</v>
       </c>
       <c r="H8">
-        <v>14.73585021802757</v>
+        <v>9.621378316748155</v>
       </c>
       <c r="I8">
-        <v>21.29801633743933</v>
+        <v>14.58363147957164</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.143546435968318</v>
+        <v>10.4251523293057</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76869224689866</v>
+        <v>29.11018885626547</v>
       </c>
       <c r="N8">
-        <v>18.82091565569213</v>
+        <v>12.13451190597502</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.568979666077015</v>
+        <v>12.88818486854616</v>
       </c>
       <c r="C9">
-        <v>4.941073002070604</v>
+        <v>7.834450175399822</v>
       </c>
       <c r="D9">
-        <v>5.065612434566921</v>
+        <v>4.606974345492642</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.62226846368308</v>
+        <v>21.96523100049764</v>
       </c>
       <c r="G9">
-        <v>31.25607608947465</v>
+        <v>29.338749942697</v>
       </c>
       <c r="H9">
-        <v>14.67021739178881</v>
+        <v>9.720159338502842</v>
       </c>
       <c r="I9">
-        <v>21.19342906957912</v>
+        <v>14.73347479524965</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.535946455478692</v>
+        <v>11.79640600453431</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23822933987264</v>
+        <v>34.59149170158784</v>
       </c>
       <c r="N9">
-        <v>18.67210802011795</v>
+        <v>11.55959312352227</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.987859388450888</v>
+        <v>13.9824606189351</v>
       </c>
       <c r="C10">
-        <v>5.258838404966721</v>
+        <v>8.468025702972918</v>
       </c>
       <c r="D10">
-        <v>5.126354217088458</v>
+        <v>4.7528173045785</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.75101442751625</v>
+        <v>23.10231746383154</v>
       </c>
       <c r="G10">
-        <v>31.50116290153709</v>
+        <v>31.03787650199547</v>
       </c>
       <c r="H10">
-        <v>14.63404728369633</v>
+        <v>9.830553660545766</v>
       </c>
       <c r="I10">
-        <v>21.13690082810976</v>
+        <v>14.91400014374263</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.820401655394077</v>
+        <v>12.71028630618147</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.29263336019497</v>
+        <v>38.47565750928549</v>
       </c>
       <c r="N10">
-        <v>18.57135606181434</v>
+        <v>11.14237634426719</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.173423579601216</v>
+        <v>14.45394405622931</v>
       </c>
       <c r="C11">
-        <v>5.396258587759122</v>
+        <v>8.742299563524506</v>
       </c>
       <c r="D11">
-        <v>5.15326448541924</v>
+        <v>4.816094466231951</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.81640094316145</v>
+        <v>23.63003071227618</v>
       </c>
       <c r="G11">
-        <v>31.62219279504146</v>
+        <v>31.82769181124221</v>
       </c>
       <c r="H11">
-        <v>14.62021720813476</v>
+        <v>9.889879326083518</v>
       </c>
       <c r="I11">
-        <v>21.11562223792094</v>
+        <v>15.01336379661481</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.948346937392969</v>
+        <v>13.10546696047756</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.76445015907834</v>
+        <v>40.23440164602184</v>
       </c>
       <c r="N11">
-        <v>18.52736459283954</v>
+        <v>10.95237434899197</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.242907279386605</v>
+        <v>14.62870424247233</v>
       </c>
       <c r="C12">
-        <v>5.447256472553978</v>
+        <v>8.844151862927314</v>
       </c>
       <c r="D12">
-        <v>5.163348069580572</v>
+        <v>4.839567678641253</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.84212923587807</v>
+        <v>23.83138508415822</v>
       </c>
       <c r="G12">
-        <v>31.66936831213926</v>
+        <v>32.12929223140157</v>
       </c>
       <c r="H12">
-        <v>14.61535795903207</v>
+        <v>9.913731675636928</v>
       </c>
       <c r="I12">
-        <v>21.10820448501718</v>
+        <v>15.05364138920356</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.996538489311293</v>
+        <v>13.25213595423046</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.94181357880463</v>
+        <v>40.90179211784834</v>
       </c>
       <c r="N12">
-        <v>18.51096949678</v>
+        <v>10.88025091667336</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.227978667347184</v>
+        <v>14.59123466508934</v>
       </c>
       <c r="C13">
-        <v>5.436319627449833</v>
+        <v>8.822305605933693</v>
       </c>
       <c r="D13">
-        <v>5.16118118418909</v>
+        <v>4.834534888433331</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.83654536204821</v>
+        <v>23.78795134066097</v>
       </c>
       <c r="G13">
-        <v>31.65914890703623</v>
+        <v>32.06422293319277</v>
       </c>
       <c r="H13">
-        <v>14.61638766950577</v>
+        <v>9.908531670134446</v>
       </c>
       <c r="I13">
-        <v>21.1097735365024</v>
+        <v>15.04484612137862</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.986171831263727</v>
+        <v>13.22068098213355</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.903675786738</v>
+        <v>40.75794664828172</v>
       </c>
       <c r="N13">
-        <v>18.51448877347729</v>
+        <v>10.89579443279029</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.179156153142241</v>
+        <v>14.46839745191357</v>
       </c>
       <c r="C14">
-        <v>5.400475133592762</v>
+        <v>8.750719315290532</v>
       </c>
       <c r="D14">
-        <v>5.154096224368025</v>
+        <v>4.818035717578994</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.81849830683668</v>
+        <v>23.64656549303269</v>
       </c>
       <c r="G14">
-        <v>31.6260471822346</v>
+        <v>31.85245342571626</v>
       </c>
       <c r="H14">
-        <v>14.61980985801163</v>
+        <v>9.891813413991752</v>
       </c>
       <c r="I14">
-        <v>21.11499913754166</v>
+        <v>15.01662330396825</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.952317139773298</v>
+        <v>13.11759331994282</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.77906902508348</v>
+        <v>40.28926296564791</v>
       </c>
       <c r="N14">
-        <v>18.52601048413468</v>
+        <v>10.94644515713168</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.149146758610764</v>
+        <v>14.39266377832652</v>
       </c>
       <c r="C15">
-        <v>5.378383505974535</v>
+        <v>8.706608813861811</v>
       </c>
       <c r="D15">
-        <v>5.149742491812632</v>
+        <v>4.80786431502044</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.80756960093248</v>
+        <v>23.56016203201181</v>
       </c>
       <c r="G15">
-        <v>31.60594560149032</v>
+        <v>31.7230701487657</v>
       </c>
       <c r="H15">
-        <v>14.62195527718604</v>
+        <v>9.881756011951859</v>
       </c>
       <c r="I15">
-        <v>21.11828337198367</v>
+        <v>14.99968653035498</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.931545076151247</v>
+        <v>13.0540606819507</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.70256910717176</v>
+        <v>40.00245085918897</v>
       </c>
       <c r="N15">
-        <v>18.53310214611849</v>
+        <v>10.9774426292134</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.97562598329576</v>
+        <v>13.95111903413475</v>
       </c>
       <c r="C16">
-        <v>5.249712839957604</v>
+        <v>8.449820371347561</v>
       </c>
       <c r="D16">
-        <v>5.124580791666202</v>
+        <v>4.748616424162731</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.74687742973388</v>
+        <v>23.06804088044485</v>
       </c>
       <c r="G16">
-        <v>31.4934429649801</v>
+        <v>30.98660525428372</v>
       </c>
       <c r="H16">
-        <v>14.63500396307956</v>
+        <v>9.826866355153864</v>
       </c>
       <c r="I16">
-        <v>21.13838088371253</v>
+        <v>14.90786780763956</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.812006573651749</v>
+        <v>12.68404497986398</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.26162584903483</v>
+        <v>38.36075836667101</v>
       </c>
       <c r="N16">
-        <v>18.57426795012989</v>
+        <v>11.15477776567755</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.867848531903245</v>
+        <v>13.67351097151336</v>
       </c>
       <c r="C17">
-        <v>5.168939443718928</v>
+        <v>8.288715322011134</v>
       </c>
       <c r="D17">
-        <v>5.108957959761423</v>
+        <v>4.711453119533791</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.71138273349128</v>
+        <v>22.76881480890775</v>
       </c>
       <c r="G17">
-        <v>31.42685060987517</v>
+        <v>30.53916507555439</v>
       </c>
       <c r="H17">
-        <v>14.64368139322854</v>
+        <v>9.795579480604626</v>
       </c>
       <c r="I17">
-        <v>21.15184782614224</v>
+        <v>14.85607415978562</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.738264970511224</v>
+        <v>12.45177419141668</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.98898321115106</v>
+        <v>37.35315223322469</v>
       </c>
       <c r="N17">
-        <v>18.5999925101608</v>
+        <v>11.2634225047874</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.805392079337523</v>
+        <v>13.51136194187673</v>
       </c>
       <c r="C18">
-        <v>5.121810007703155</v>
+        <v>8.194739862105447</v>
       </c>
       <c r="D18">
-        <v>5.099904387236404</v>
+        <v>4.689792298048946</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.6916098524583</v>
+        <v>22.59768760106597</v>
       </c>
       <c r="G18">
-        <v>31.38944809993126</v>
+        <v>30.28338767631671</v>
       </c>
       <c r="H18">
-        <v>14.64891936406161</v>
+        <v>9.778436402742594</v>
       </c>
       <c r="I18">
-        <v>21.16001111781371</v>
+        <v>14.82789583856068</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.695716596449341</v>
+        <v>12.31624545702098</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.83143817534273</v>
+        <v>36.77264544061008</v>
       </c>
       <c r="N18">
-        <v>18.61496196299292</v>
+        <v>11.32590290093865</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.784167613448265</v>
+        <v>13.45603561043429</v>
       </c>
       <c r="C19">
-        <v>5.105738082134507</v>
+        <v>8.162696136325925</v>
       </c>
       <c r="D19">
-        <v>5.096827462524598</v>
+        <v>4.682410586749157</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.68502584853007</v>
+        <v>22.53991533123971</v>
       </c>
       <c r="G19">
-        <v>31.37693956254404</v>
+        <v>30.19705567005415</v>
       </c>
       <c r="H19">
-        <v>14.65073524435643</v>
+        <v>9.772776149024379</v>
       </c>
       <c r="I19">
-        <v>21.16284670276674</v>
+        <v>14.81862698496962</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.681288956089183</v>
+        <v>12.2700264551417</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.77797672281001</v>
+        <v>36.57586405204912</v>
       </c>
       <c r="N19">
-        <v>18.62006017590442</v>
+        <v>11.34705992110498</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.879370343441364</v>
+        <v>13.70331906573593</v>
       </c>
       <c r="C20">
-        <v>5.177607439770956</v>
+        <v>8.306001051500314</v>
       </c>
       <c r="D20">
-        <v>5.110628068938041</v>
+        <v>4.715439076162914</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.71509477222052</v>
+        <v>22.8005665561473</v>
       </c>
       <c r="G20">
-        <v>31.43384656004549</v>
+        <v>30.58663213976786</v>
       </c>
       <c r="H20">
-        <v>14.64273210385958</v>
+        <v>9.79882126530407</v>
       </c>
       <c r="I20">
-        <v>21.15037102604756</v>
+        <v>14.86141964328632</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.746129140856878</v>
+        <v>12.47669999629341</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.01808318430742</v>
+        <v>37.46049644927255</v>
       </c>
       <c r="N20">
-        <v>18.59723615302087</v>
+        <v>11.25185896364468</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.193518335301853</v>
+        <v>14.5045803252276</v>
       </c>
       <c r="C21">
-        <v>5.411031861224061</v>
+        <v>8.771800521118754</v>
       </c>
       <c r="D21">
-        <v>5.156180169597034</v>
+        <v>4.822895607313522</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.82377300675316</v>
+        <v>23.68805227187728</v>
       </c>
       <c r="G21">
-        <v>31.63573371479487</v>
+        <v>31.91458585185617</v>
       </c>
       <c r="H21">
-        <v>14.61879441788286</v>
+        <v>9.89668568587591</v>
       </c>
       <c r="I21">
-        <v>21.11344686734321</v>
+        <v>15.0248396565202</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.962268479637983</v>
+        <v>13.14795366799473</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.81570574512537</v>
+        <v>40.42686473004589</v>
       </c>
       <c r="N21">
-        <v>18.52261913636193</v>
+        <v>10.93157386897261</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.394227323200671</v>
+        <v>15.00621201133209</v>
       </c>
       <c r="C22">
-        <v>5.557520571691136</v>
+        <v>9.064511444727639</v>
       </c>
       <c r="D22">
-        <v>5.185327530786988</v>
+        <v>4.890247454917305</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.9004348516913</v>
+        <v>24.27698774736885</v>
       </c>
       <c r="G22">
-        <v>31.77549858903967</v>
+        <v>32.79725114762011</v>
       </c>
       <c r="H22">
-        <v>14.60535266577768</v>
+        <v>9.968770214746057</v>
       </c>
       <c r="I22">
-        <v>21.09304595796882</v>
+        <v>15.14718497591136</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.102000120868915</v>
+        <v>13.56928818688528</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.32933141645154</v>
+        <v>42.37546948522116</v>
       </c>
       <c r="N22">
-        <v>18.4753880252663</v>
+        <v>10.72113783504481</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.287547283207999</v>
+        <v>14.74049920577306</v>
       </c>
       <c r="C23">
-        <v>5.479896051791014</v>
+        <v>8.909360349229173</v>
       </c>
       <c r="D23">
-        <v>5.169829067535233</v>
+        <v>4.854582216022518</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.85900804259516</v>
+        <v>23.96182634977071</v>
       </c>
       <c r="G23">
-        <v>31.70019769992332</v>
+        <v>32.32474948471003</v>
       </c>
       <c r="H23">
-        <v>14.61232504143865</v>
+        <v>9.929526960716839</v>
       </c>
       <c r="I23">
-        <v>21.10359227522629</v>
+        <v>15.08040455388871</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.027578090847722</v>
+        <v>13.3460119562155</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.05595510172044</v>
+        <v>41.33349492704761</v>
       </c>
       <c r="N23">
-        <v>18.50045607091808</v>
+        <v>10.83361172271348</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.874162865130515</v>
+        <v>13.68985076452096</v>
       </c>
       <c r="C24">
-        <v>5.173690792229184</v>
+        <v>8.298190390398251</v>
       </c>
       <c r="D24">
-        <v>5.109873235986588</v>
+        <v>4.713637941038211</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.713414585372</v>
+        <v>22.78620878283732</v>
       </c>
       <c r="G24">
-        <v>31.43068094068188</v>
+        <v>30.5651677317685</v>
       </c>
       <c r="H24">
-        <v>14.6431605014243</v>
+        <v>9.797353030853053</v>
       </c>
       <c r="I24">
-        <v>21.15103737630823</v>
+        <v>14.85899798388415</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.742574223301729</v>
+        <v>12.46543724654416</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.00492956204683</v>
+        <v>37.41197011431407</v>
       </c>
       <c r="N24">
-        <v>18.59848174114209</v>
+        <v>11.25708677083094</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.410797454342903</v>
+        <v>12.46184049226989</v>
       </c>
       <c r="C25">
-        <v>4.817841378002605</v>
+        <v>7.588791302503017</v>
       </c>
       <c r="D25">
-        <v>5.042624136831019</v>
+        <v>4.550818661674533</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.58097823723947</v>
+        <v>21.55585973347519</v>
       </c>
       <c r="G25">
-        <v>31.17444346982245</v>
+        <v>28.7278431869974</v>
       </c>
       <c r="H25">
-        <v>14.68585951199132</v>
+        <v>9.687087354500949</v>
       </c>
       <c r="I25">
-        <v>21.2181651796512</v>
+        <v>14.68120242807749</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.430245562395362</v>
+        <v>11.44178473216458</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84425464472791</v>
+        <v>33.14014493194761</v>
       </c>
       <c r="N25">
-        <v>18.71085176658674</v>
+        <v>11.71383583650547</v>
       </c>
       <c r="O25">
         <v>0</v>
